--- a/Buyer hub/Outlets/Manual testcases/Outlet Details testcases.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlet Details testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Outlets\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC9B09D-8C37-4BCA-B769-D210407425B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1163D57C-F28B-4431-A0FD-1EDDDE5B5200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Buyer hub/Outlets/Manual testcases/Outlet Details testcases.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlet Details testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1163D57C-F28B-4431-A0FD-1EDDDE5B5200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF0CB2-C88F-4805-9EF7-0EA10AF8202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,384 +55,396 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">As per expected, Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>of any one outlet, The dropdown value it get display like Manage details, Manage settings and View suppliers</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Click on the </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actions-&gt;Manage Details</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manage details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it comes Details page </t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the Details page</t>
+  </si>
+  <si>
+    <t>it shows Details page are Basic information, Company, Outlet name, Address, Logo, Outlet email, Zeemart subscription, View pricing options, Cancel and save</t>
+  </si>
+  <si>
+    <t>In the details page fill the requried fields</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Actions-&gt;Manage Details-&gt;Company </t>
+    </r>
+  </si>
+  <si>
+    <t>By default Company selected</t>
+  </si>
+  <si>
+    <t>It gets seleted</t>
+  </si>
+  <si>
+    <t>It gets displayed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Actions-&gt;Manage Details-&gt;Outlet name </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the Outlet name </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Actions-&gt;Manage Details-&gt;Address </t>
+    </r>
+  </si>
+  <si>
+    <t>give required data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actions-&gt;Manage Details-&gt;Logo</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Logo browse ,you must select the JPEG, PNG files only- max 5MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select from browser max 5MB Logo </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actions-&gt;Manage Details-&gt;Outlet email</t>
+    </r>
+  </si>
+  <si>
+    <t>you must give outlet email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it get displayed </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Actions-&gt;Manage Details-&gt;View pricing options </t>
+    </r>
+  </si>
+  <si>
+    <t>if you click the View pricing options ,it goes to next page of F&amp;B page and zeemart help chat available</t>
+  </si>
+  <si>
+    <t>it displayed the F&amp;B page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Actions-&gt;Manage Details-&gt; Cancel </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> option it will redirects to Dashboard page</t>
+    </r>
+  </si>
+  <si>
+    <t>It redirects to Dashboard page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actions-&gt;Manage Details-&gt; Save</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill the required fiels ,Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it returns to Outlet details updated successfully</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed Outlet details updated successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>Once click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Actions</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>Actions"</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
+      <t>of any one outlet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The dropdown value it should display like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Manage details, Manage settings, View suppliers and Integration'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Once click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Actions"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>of any one outlet</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> The dropdown value it should display like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Manage details, Manage settings and View suppliers'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As per expected, Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>of any one outlet, The dropdown value it get display like Manage details, Manage settings and View suppliers</t>
-    </r>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Actions-&gt;Manage Details</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(New)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking Manage details,it shows Details page are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Manage details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it comes Details page </t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed the Details page</t>
-  </si>
-  <si>
-    <t>it shows Details page are Basic information, Company, Outlet name, Address, Logo, Outlet email, Zeemart subscription, View pricing options, Cancel and save</t>
-  </si>
-  <si>
-    <t>After clicking Manage details,it shows Details page are Basic information, Company, Outlet name, Address, Logo, Outlet email, Zeemart subscription, View pricing options, Cancel and save</t>
-  </si>
-  <si>
-    <t>In the details page fill the requried fields</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Actions-&gt;Manage Details-&gt;Company </t>
-    </r>
-  </si>
-  <si>
-    <t>By default Company selected</t>
-  </si>
-  <si>
-    <t>It gets seleted</t>
-  </si>
-  <si>
-    <t>It gets displayed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Actions-&gt;Manage Details-&gt;Outlet name </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the Outlet name </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Actions-&gt;Manage Details-&gt;Address </t>
-    </r>
-  </si>
-  <si>
-    <t>In Address sinagpore is by default, and give address 2</t>
-  </si>
-  <si>
-    <t>give required data</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Actions-&gt;Manage Details-&gt;Logo</t>
-    </r>
-  </si>
-  <si>
-    <t>Once click the Logo browse ,you must select the JPEG, PNG files only- max 5MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select from browser max 5MB Logo </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Actions-&gt;Manage Details-&gt;Outlet email</t>
-    </r>
-  </si>
-  <si>
-    <t>you must give outlet email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it get displayed </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Actions-&gt;Manage Details-&gt;View pricing options </t>
-    </r>
-  </si>
-  <si>
-    <t>if you click the View pricing options ,it goes to next page of F&amp;B page and zeemart help chat available</t>
-  </si>
-  <si>
-    <t>it displayed the F&amp;B page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Actions-&gt;Manage Details-&gt; Cancel </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If you click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> option it will redirects to Dashboard page</t>
-    </r>
-  </si>
-  <si>
-    <t>It redirects to Dashboard page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Actions-&gt;Manage Details-&gt; Save</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fill the required fiels ,Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it returns to Outlet details updated successfully</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed Outlet details updated successfully</t>
+      <t>Basic information, Company, Outlet name, Address, Logo, Outlet email, Zeemart subscription, View pricing options, Cancel and save</t>
+    </r>
+  </si>
+  <si>
+    <t>In Address sinagpore/Autralia is by default, Postcode, State dropdown and give address 1 and 2</t>
   </si>
 </sst>
 </file>
@@ -881,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,16 +941,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -952,16 +964,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,16 +987,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -998,16 +1010,16 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1021,16 +1033,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1044,19 +1056,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1067,16 +1079,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1090,16 +1102,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1113,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1136,16 +1148,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,16 +1171,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,19 +1194,20 @@
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Buyer hub/Outlets/Manual testcases/Outlet Details testcases.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlet Details testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF0CB2-C88F-4805-9EF7-0EA10AF8202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAB5CA5-CF50-46C7-879B-80B21E8C335C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
